--- a/config/授薪律师名单.xlsx
+++ b/config/授薪律师名单.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9847" windowHeight="6495"/>
+    <workbookView windowWidth="18540" windowHeight="9730"/>
   </bookViews>
   <sheets>
     <sheet name="授薪律师名单" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
     <t>姓名</t>
   </si>
@@ -30,6 +30,9 @@
   <si>
     <t>王秦</t>
   </si>
+  <si>
+    <t>罗烨希</t>
+  </si>
 </sst>
 </file>
 
@@ -37,9 +40,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -47,6 +50,66 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -59,9 +122,63 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -73,120 +190,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -209,31 +212,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,13 +338,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,121 +350,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,15 +397,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -421,6 +415,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -432,32 +444,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,6 +465,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -486,11 +483,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,10 +505,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -514,133 +517,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -970,15 +973,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="11.7256637168142"/>
+    <col min="2" max="2" width="11.7272727272727"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1013,6 +1016,14 @@
         <v>43016</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43198</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/config/授薪律师名单.xlsx
+++ b/config/授薪律师名单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18540" windowHeight="9730"/>
+    <workbookView windowWidth="15525" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="授薪律师名单" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
   <si>
     <t>姓名</t>
   </si>
   <si>
     <t>入职日期</t>
-  </si>
-  <si>
-    <t>肖敏</t>
   </si>
   <si>
     <t>曾婕</t>
@@ -39,10 +36,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -53,17 +50,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -77,111 +163,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -190,8 +171,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,61 +203,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,121 +377,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,6 +394,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -415,24 +427,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -444,6 +438,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,10 +468,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -483,17 +484,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,10 +502,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -517,133 +514,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -973,15 +970,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="11.7272727272727"/>
+    <col min="2" max="2" width="11.725"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -997,7 +994,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>42217</v>
+        <v>43059</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1005,7 +1002,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>43059</v>
+        <v>43016</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1013,14 +1010,6 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>43016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
         <v>43198</v>
       </c>
     </row>

--- a/config/授薪律师名单.xlsx
+++ b/config/授薪律师名单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15525" windowHeight="7860"/>
+    <workbookView windowWidth="11502" windowHeight="7371"/>
   </bookViews>
   <sheets>
     <sheet name="授薪律师名单" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
   <si>
     <t>姓名</t>
   </si>
@@ -25,9 +25,6 @@
     <t>曾婕</t>
   </si>
   <si>
-    <t>王秦</t>
-  </si>
-  <si>
     <t>罗烨希</t>
   </si>
 </sst>
@@ -36,10 +33,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -50,6 +47,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -58,15 +102,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -80,27 +145,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -109,57 +153,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,24 +169,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,13 +200,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,55 +338,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,67 +368,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,37 +380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,17 +394,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -428,6 +419,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -438,6 +444,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,27 +487,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,10 +499,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -514,133 +511,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -970,15 +967,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.02702702702703" defaultRowHeight="14.1" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="11.725"/>
+    <col min="2" max="2" width="11.7207207207207"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1002,14 +999,6 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>43016</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
         <v>43198</v>
       </c>
     </row>

--- a/config/授薪律师名单.xlsx
+++ b/config/授薪律师名单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11502" windowHeight="7371"/>
+    <workbookView windowWidth="18650" windowHeight="8680"/>
   </bookViews>
   <sheets>
     <sheet name="授薪律师名单" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
   <si>
     <t>姓名</t>
   </si>
@@ -24,19 +24,16 @@
   <si>
     <t>曾婕</t>
   </si>
-  <si>
-    <t>罗烨希</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -47,11 +44,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -72,66 +84,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,6 +113,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -155,22 +144,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,7 +168,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,37 +197,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,43 +335,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,97 +371,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,45 +388,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -450,11 +408,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,6 +435,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,9 +465,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,10 +496,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -511,133 +508,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -967,15 +964,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02702702702703" defaultRowHeight="14.1" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="11.7207207207207"/>
+    <col min="2" max="2" width="11.8181818181818"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -994,14 +991,6 @@
         <v>43059</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43198</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/config/授薪律师名单.xlsx
+++ b/config/授薪律师名单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18650" windowHeight="8680"/>
+    <workbookView windowWidth="19200" windowHeight="9070"/>
   </bookViews>
   <sheets>
     <sheet name="授薪律师名单" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>姓名</t>
   </si>
@@ -24,15 +24,18 @@
   <si>
     <t>曾婕</t>
   </si>
+  <si>
+    <t>孙跃红</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -46,6 +49,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -53,7 +87,67 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -67,24 +161,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,89 +179,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,13 +200,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,13 +296,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,139 +338,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,6 +391,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -408,8 +426,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -433,8 +453,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,7 +463,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,32 +491,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -496,10 +499,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -508,133 +511,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -964,13 +967,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="11.8181818181818"/>
   </cols>
@@ -991,6 +994,14 @@
         <v>43059</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43577</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/config/授薪律师名单.xlsx
+++ b/config/授薪律师名单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="9070"/>
+    <workbookView windowWidth="21000" windowHeight="8675"/>
   </bookViews>
   <sheets>
     <sheet name="授薪律师名单" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>姓名</t>
   </si>
@@ -24,18 +24,15 @@
   <si>
     <t>曾婕</t>
   </si>
-  <si>
-    <t>孙跃红</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -47,27 +44,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -78,6 +126,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -86,20 +141,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -107,16 +164,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,62 +180,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,187 +197,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,6 +388,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -405,6 +411,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -436,48 +466,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -491,6 +479,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -499,10 +496,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -511,133 +508,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -967,15 +964,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.02777777777778" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="11.8181818181818"/>
+    <col min="2" max="2" width="11.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -994,14 +991,6 @@
         <v>43059</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43577</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/config/授薪律师名单.xlsx
+++ b/config/授薪律师名单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8675"/>
+    <workbookView windowWidth="23040" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="授薪律师名单" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>姓名</t>
   </si>
@@ -24,16 +24,19 @@
   <si>
     <t>曾婕</t>
   </si>
+  <si>
+    <t>张敏</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -45,13 +48,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -60,52 +56,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,6 +69,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -127,7 +85,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,7 +130,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,7 +161,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,6 +169,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -166,23 +185,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,187 +200,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,41 +403,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,13 +427,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,6 +465,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -496,10 +499,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -508,133 +511,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -964,13 +967,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02777777777778" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.02777777777778" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="11.8888888888889"/>
   </cols>
@@ -991,6 +994,14 @@
         <v>43059</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44613</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
